--- a/resources/experiment 1/predictions/global/LinearRegression/average time/Comorbilidades.xlsx
+++ b/resources/experiment 1/predictions/global/LinearRegression/average time/Comorbilidades.xlsx
@@ -778,7 +778,7 @@
         <v>29.18499922969961</v>
       </c>
       <c r="J3" t="n">
-        <v>25.87104878245525</v>
+        <v>25.87104878245526</v>
       </c>
       <c r="K3" t="n">
         <v>18.7381643512611</v>
@@ -814,7 +814,7 @@
         <v>32.10535012218341</v>
       </c>
       <c r="V3" t="n">
-        <v>30.70434163980672</v>
+        <v>30.70434163980673</v>
       </c>
       <c r="W3" t="n">
         <v>18.67003781044017</v>
@@ -969,10 +969,10 @@
         <v>21.40233213924034</v>
       </c>
       <c r="AH4" t="n">
-        <v>26.81791889334945</v>
+        <v>26.81791889334946</v>
       </c>
       <c r="AI4" t="n">
-        <v>21.24973515125875</v>
+        <v>21.24973515125874</v>
       </c>
       <c r="AJ4" t="n">
         <v>32.29066254265016</v>
@@ -992,7 +992,7 @@
         <v>28.01743318486904</v>
       </c>
       <c r="B5" t="n">
-        <v>22.24515852465426</v>
+        <v>22.24515852465427</v>
       </c>
       <c r="C5" t="n">
         <v>33.73824654069772</v>
@@ -1040,7 +1040,7 @@
         <v>22.6885909417925</v>
       </c>
       <c r="R5" t="n">
-        <v>33.97907982064374</v>
+        <v>33.97907982064375</v>
       </c>
       <c r="S5" t="n">
         <v>25.4579871884107</v>
@@ -1049,7 +1049,7 @@
         <v>17.24042144715613</v>
       </c>
       <c r="U5" t="n">
-        <v>34.18374139715317</v>
+        <v>34.18374139715316</v>
       </c>
       <c r="V5" t="n">
         <v>33.04507577255941</v>
@@ -1094,7 +1094,7 @@
         <v>25.79697993523015</v>
       </c>
       <c r="AJ5" t="n">
-        <v>38.92037220997662</v>
+        <v>38.92037220997663</v>
       </c>
       <c r="AK5" t="n">
         <v>32.1980353555767</v>
@@ -1335,7 +1335,7 @@
         <v>20.70284196032053</v>
       </c>
       <c r="AK7" t="n">
-        <v>19.87474021638648</v>
+        <v>19.87474021638649</v>
       </c>
       <c r="AL7" t="n">
         <v>16.95800868427562</v>
@@ -1355,7 +1355,7 @@
         <v>12.89771715391016</v>
       </c>
       <c r="D8" t="n">
-        <v>7.858993802278217</v>
+        <v>7.858993802278214</v>
       </c>
       <c r="E8" t="n">
         <v>3.610274122733367</v>
@@ -1364,7 +1364,7 @@
         <v>12.85982747287973</v>
       </c>
       <c r="G8" t="n">
-        <v>7.892329603788413</v>
+        <v>7.892329603788415</v>
       </c>
       <c r="H8" t="n">
         <v>3.843870241100484</v>
@@ -1391,10 +1391,10 @@
         <v>18.45772330539699</v>
       </c>
       <c r="P8" t="n">
-        <v>8.351243436137434</v>
+        <v>8.351243436137436</v>
       </c>
       <c r="Q8" t="n">
-        <v>6.715698028271396</v>
+        <v>6.715698028271397</v>
       </c>
       <c r="R8" t="n">
         <v>10.7715202227143</v>
@@ -1421,10 +1421,10 @@
         <v>2.627735266507333</v>
       </c>
       <c r="Z8" t="n">
-        <v>1.100994655135649</v>
+        <v>1.100994655135651</v>
       </c>
       <c r="AA8" t="n">
-        <v>4.784788835186497</v>
+        <v>4.784788835186495</v>
       </c>
       <c r="AB8" t="n">
         <v>17.86467116240024</v>
@@ -1448,16 +1448,16 @@
         <v>1.492445406115291</v>
       </c>
       <c r="AI8" t="n">
-        <v>0.9774607584875916</v>
+        <v>0.9774607584875898</v>
       </c>
       <c r="AJ8" t="n">
-        <v>2.481639226469337</v>
+        <v>2.481639226469333</v>
       </c>
       <c r="AK8" t="n">
         <v>7.534856710700137</v>
       </c>
       <c r="AL8" t="n">
-        <v>5.036298212680629</v>
+        <v>5.036298212680627</v>
       </c>
       <c r="AM8" t="n">
         <v>10.5937926112375</v>
@@ -1474,7 +1474,7 @@
         <v>29.27040674726859</v>
       </c>
       <c r="D9" t="n">
-        <v>23.45717129831562</v>
+        <v>23.45717129831563</v>
       </c>
       <c r="E9" t="n">
         <v>19.15738864760423</v>
@@ -1531,7 +1531,7 @@
         <v>25.53034463282942</v>
       </c>
       <c r="W9" t="n">
-        <v>16.49731901171079</v>
+        <v>16.4973190117108</v>
       </c>
       <c r="X9" t="n">
         <v>34.71877544640645</v>
@@ -1587,31 +1587,31 @@
         <v>9.076173306733009</v>
       </c>
       <c r="B10" t="n">
-        <v>4.767348918656955</v>
+        <v>4.767348918656957</v>
       </c>
       <c r="C10" t="n">
         <v>14.41775252573267</v>
       </c>
       <c r="D10" t="n">
-        <v>8.975633313045162</v>
+        <v>8.97563331304516</v>
       </c>
       <c r="E10" t="n">
         <v>4.40607809797965</v>
       </c>
       <c r="F10" t="n">
-        <v>14.32636314461397</v>
+        <v>14.32636314461398</v>
       </c>
       <c r="G10" t="n">
-        <v>9.022756064048403</v>
+        <v>9.022756064048405</v>
       </c>
       <c r="H10" t="n">
-        <v>4.592767504900028</v>
+        <v>4.59276750490003</v>
       </c>
       <c r="I10" t="n">
         <v>14.59644949061411</v>
       </c>
       <c r="J10" t="n">
-        <v>8.969245956491337</v>
+        <v>8.969245956491338</v>
       </c>
       <c r="K10" t="n">
         <v>4.783264760357033</v>
@@ -1635,16 +1635,16 @@
         <v>7.874426629299665</v>
       </c>
       <c r="R10" t="n">
-        <v>12.39861141566194</v>
+        <v>12.39861141566193</v>
       </c>
       <c r="S10" t="n">
         <v>-1.710223218954807</v>
       </c>
       <c r="T10" t="n">
-        <v>-0.2259491395260955</v>
+        <v>-0.2259491395260973</v>
       </c>
       <c r="U10" t="n">
-        <v>-2.571228280830674</v>
+        <v>-2.571228280830677</v>
       </c>
       <c r="V10" t="n">
         <v>1.914596534056653</v>
@@ -1659,7 +1659,7 @@
         <v>3.508076256195938</v>
       </c>
       <c r="Z10" t="n">
-        <v>1.731889583907451</v>
+        <v>1.731889583907453</v>
       </c>
       <c r="AA10" t="n">
         <v>6.083139451064586</v>
@@ -1680,7 +1680,7 @@
         <v>0.9333138105177685</v>
       </c>
       <c r="AG10" t="n">
-        <v>5.120842126721815</v>
+        <v>5.120842126721817</v>
       </c>
       <c r="AH10" t="n">
         <v>2.484880222251606</v>
@@ -1689,13 +1689,13 @@
         <v>1.856668108961435</v>
       </c>
       <c r="AJ10" t="n">
-        <v>3.673311475868733</v>
+        <v>3.673311475868729</v>
       </c>
       <c r="AK10" t="n">
-        <v>8.630592836605739</v>
+        <v>8.630592836605741</v>
       </c>
       <c r="AL10" t="n">
-        <v>6.045424594340524</v>
+        <v>6.045424594340522</v>
       </c>
       <c r="AM10" t="n">
         <v>11.94663998691074</v>
@@ -1772,7 +1772,7 @@
         <v>11.79539118913283</v>
       </c>
       <c r="X11" t="n">
-        <v>19.81645379615841</v>
+        <v>19.81645379615842</v>
       </c>
       <c r="Y11" t="n">
         <v>12.54114619715573</v>
@@ -1870,7 +1870,7 @@
         <v>25.31253735893833</v>
       </c>
       <c r="Q12" t="n">
-        <v>20.26482504559886</v>
+        <v>20.26482504559885</v>
       </c>
       <c r="R12" t="n">
         <v>31.05898898267733</v>
@@ -1885,7 +1885,7 @@
         <v>23.90860416499842</v>
       </c>
       <c r="V12" t="n">
-        <v>25.30878335879183</v>
+        <v>25.30878335879184</v>
       </c>
       <c r="W12" t="n">
         <v>17.27100048515221</v>
@@ -1983,7 +1983,7 @@
         <v>27.96501744710441</v>
       </c>
       <c r="O13" t="n">
-        <v>33.07500454444966</v>
+        <v>33.07500454444967</v>
       </c>
       <c r="P13" t="n">
         <v>15.46592806017408</v>
@@ -1995,16 +1995,16 @@
         <v>19.53204001800093</v>
       </c>
       <c r="S13" t="n">
-        <v>3.980286734195964</v>
+        <v>3.980286734195962</v>
       </c>
       <c r="T13" t="n">
-        <v>3.607695088755979</v>
+        <v>3.607695088755978</v>
       </c>
       <c r="U13" t="n">
-        <v>5.008757024953111</v>
+        <v>5.008757024953109</v>
       </c>
       <c r="V13" t="n">
-        <v>9.207766399749064</v>
+        <v>9.207766399749062</v>
       </c>
       <c r="W13" t="n">
         <v>8.727417891360583</v>
@@ -2022,7 +2022,7 @@
         <v>11.98773418845418</v>
       </c>
       <c r="AB13" t="n">
-        <v>26.76072593259111</v>
+        <v>26.76072593259112</v>
       </c>
       <c r="AC13" t="n">
         <v>24.06580151202939</v>
@@ -2043,7 +2043,7 @@
         <v>8.97403132962623</v>
       </c>
       <c r="AI13" t="n">
-        <v>7.119975936535994</v>
+        <v>7.119975936535995</v>
       </c>
       <c r="AJ13" t="n">
         <v>11.47633097161913</v>
@@ -2052,7 +2052,7 @@
         <v>14.59613112729863</v>
       </c>
       <c r="AL13" t="n">
-        <v>11.41965665259471</v>
+        <v>11.4196566525947</v>
       </c>
       <c r="AM13" t="n">
         <v>18.71458814775775</v>
@@ -2114,7 +2114,7 @@
         <v>20.46442718570263</v>
       </c>
       <c r="S14" t="n">
-        <v>6.452117727066916</v>
+        <v>6.452117727066915</v>
       </c>
       <c r="T14" t="n">
         <v>5.120099087849816</v>
@@ -2135,7 +2135,7 @@
         <v>10.06703766846214</v>
       </c>
       <c r="Z14" t="n">
-        <v>7.441081225481542</v>
+        <v>7.441081225481543</v>
       </c>
       <c r="AA14" t="n">
         <v>13.3557167191268</v>
@@ -2162,7 +2162,7 @@
         <v>11.62146849564084</v>
       </c>
       <c r="AI14" t="n">
-        <v>9.192742975956552</v>
+        <v>9.19274297595655</v>
       </c>
       <c r="AJ14" t="n">
         <v>14.54938631172287</v>
@@ -2179,7 +2179,7 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>30.06382435002722</v>
+        <v>30.06382435002721</v>
       </c>
       <c r="B15" t="n">
         <v>23.67357674535751</v>
@@ -2200,7 +2200,7 @@
         <v>29.95292967586083</v>
       </c>
       <c r="H15" t="n">
-        <v>25.00434616065431</v>
+        <v>25.00434616065432</v>
       </c>
       <c r="I15" t="n">
         <v>34.873788090013</v>
@@ -2287,7 +2287,7 @@
         <v>41.28168180360487</v>
       </c>
       <c r="AK15" t="n">
-        <v>34.28997740841108</v>
+        <v>34.28997740841107</v>
       </c>
       <c r="AL15" t="n">
         <v>30.56434044863228</v>
@@ -2349,7 +2349,7 @@
         <v>20.11428528418</v>
       </c>
       <c r="R16" t="n">
-        <v>30.4872142922927</v>
+        <v>30.48721429229271</v>
       </c>
       <c r="S16" t="n">
         <v>19.64077600634052</v>
@@ -2361,7 +2361,7 @@
         <v>26.29537576566877</v>
       </c>
       <c r="V16" t="n">
-        <v>26.70071169920575</v>
+        <v>26.70071169920576</v>
       </c>
       <c r="W16" t="n">
         <v>17.39257351075366</v>
@@ -2632,7 +2632,7 @@
         <v>15.13439344174483</v>
       </c>
       <c r="AG18" t="n">
-        <v>21.40270887203777</v>
+        <v>21.40270887203778</v>
       </c>
       <c r="AH18" t="n">
         <v>26.79231382871241</v>
@@ -2641,7 +2641,7 @@
         <v>21.18447742851047</v>
       </c>
       <c r="AJ18" t="n">
-        <v>32.28331757425997</v>
+        <v>32.28331757425998</v>
       </c>
       <c r="AK18" t="n">
         <v>27.21211462531644</v>
@@ -2694,7 +2694,7 @@
         <v>35.50378563344769</v>
       </c>
       <c r="N19" t="n">
-        <v>27.95904388274135</v>
+        <v>27.95904388274136</v>
       </c>
       <c r="O19" t="n">
         <v>42.8435011863675</v>
@@ -2840,7 +2840,7 @@
         <v>28.94263344516489</v>
       </c>
       <c r="W20" t="n">
-        <v>18.90495500995793</v>
+        <v>18.90495500995794</v>
       </c>
       <c r="X20" t="n">
         <v>39.08577995269805</v>
@@ -2888,7 +2888,7 @@
         <v>25.83120495341767</v>
       </c>
       <c r="AM20" t="n">
-        <v>33.94886844141962</v>
+        <v>33.94886844141963</v>
       </c>
     </row>
     <row r="21">
@@ -2902,7 +2902,7 @@
         <v>34.45222669788203</v>
       </c>
       <c r="D21" t="n">
-        <v>27.71116009475518</v>
+        <v>27.71116009475519</v>
       </c>
       <c r="E21" t="n">
         <v>22.89212712608616</v>
@@ -2917,7 +2917,7 @@
         <v>22.69115395677177</v>
       </c>
       <c r="I21" t="n">
-        <v>32.82564995161331</v>
+        <v>32.82564995161332</v>
       </c>
       <c r="J21" t="n">
         <v>27.60477668874497</v>
@@ -2944,7 +2944,7 @@
         <v>22.76403062538203</v>
       </c>
       <c r="R21" t="n">
-        <v>34.52012217731305</v>
+        <v>34.52012217731306</v>
       </c>
       <c r="S21" t="n">
         <v>23.72194647935138</v>
@@ -2956,13 +2956,13 @@
         <v>31.79973427879376</v>
       </c>
       <c r="V21" t="n">
-        <v>31.6037412387487</v>
+        <v>31.60374123874871</v>
       </c>
       <c r="W21" t="n">
         <v>20.19991003348373</v>
       </c>
       <c r="X21" t="n">
-        <v>43.01061769190624</v>
+        <v>43.01061769190623</v>
       </c>
       <c r="Y21" t="n">
         <v>23.13799615222088</v>
@@ -3007,7 +3007,7 @@
         <v>27.78853278749735</v>
       </c>
       <c r="AM21" t="n">
-        <v>35.42963383486162</v>
+        <v>35.42963383486163</v>
       </c>
     </row>
     <row r="22">
@@ -3015,13 +3015,13 @@
         <v>10.15272072196636</v>
       </c>
       <c r="B22" t="n">
-        <v>5.524884413726907</v>
+        <v>5.524884413726909</v>
       </c>
       <c r="C22" t="n">
         <v>15.9094276853256</v>
       </c>
       <c r="D22" t="n">
-        <v>10.01929401057273</v>
+        <v>10.01929401057272</v>
       </c>
       <c r="E22" t="n">
         <v>5.137368931670515</v>
@@ -3054,28 +3054,28 @@
         <v>24.79548201378785</v>
       </c>
       <c r="O22" t="n">
-        <v>24.06698455499208</v>
+        <v>24.06698455499209</v>
       </c>
       <c r="P22" t="n">
         <v>10.93070900420637</v>
       </c>
       <c r="Q22" t="n">
-        <v>8.882955074669283</v>
+        <v>8.882955074669285</v>
       </c>
       <c r="R22" t="n">
         <v>13.96423794117892</v>
       </c>
       <c r="S22" t="n">
-        <v>-0.8917775876331895</v>
+        <v>-0.8917775876331913</v>
       </c>
       <c r="T22" t="n">
-        <v>0.3674834703398719</v>
+        <v>0.3674834703398702</v>
       </c>
       <c r="U22" t="n">
-        <v>-1.534797125656748</v>
+        <v>-1.534797125656752</v>
       </c>
       <c r="V22" t="n">
-        <v>3.134369793829773</v>
+        <v>3.134369793829771</v>
       </c>
       <c r="W22" t="n">
         <v>5.024826869587655</v>
@@ -3096,7 +3096,7 @@
         <v>21.8720777372164</v>
       </c>
       <c r="AC22" t="n">
-        <v>19.99578133422551</v>
+        <v>19.9957813342255</v>
       </c>
       <c r="AD22" t="n">
         <v>23.89042219105571</v>
@@ -3117,13 +3117,13 @@
         <v>2.670617736687005</v>
       </c>
       <c r="AJ22" t="n">
-        <v>4.857638756877943</v>
+        <v>4.85763875687794</v>
       </c>
       <c r="AK22" t="n">
         <v>9.693152229519066</v>
       </c>
       <c r="AL22" t="n">
-        <v>6.959227698698099</v>
+        <v>6.959227698698097</v>
       </c>
       <c r="AM22" t="n">
         <v>13.28037863407814</v>
@@ -3182,13 +3182,13 @@
         <v>25.1884757330961</v>
       </c>
       <c r="R23" t="n">
-        <v>38.46083306118742</v>
+        <v>38.46083306118743</v>
       </c>
       <c r="S23" t="n">
         <v>27.72046160485227</v>
       </c>
       <c r="T23" t="n">
-        <v>18.83700354078931</v>
+        <v>18.83700354078932</v>
       </c>
       <c r="U23" t="n">
         <v>37.3123862388516</v>
@@ -3313,7 +3313,7 @@
         <v>26.29261128335782</v>
       </c>
       <c r="V24" t="n">
-        <v>26.75011789260253</v>
+        <v>26.75011789260254</v>
       </c>
       <c r="W24" t="n">
         <v>17.5316372601944</v>
@@ -3402,7 +3402,7 @@
         <v>15.71809538113581</v>
       </c>
       <c r="L25" t="n">
-        <v>29.25074111747484</v>
+        <v>29.25074111747483</v>
       </c>
       <c r="M25" t="n">
         <v>29.86255397339994</v>
@@ -3432,7 +3432,7 @@
         <v>24.21974897300997</v>
       </c>
       <c r="V25" t="n">
-        <v>24.31057137305629</v>
+        <v>24.3105713730563</v>
       </c>
       <c r="W25" t="n">
         <v>15.46300076322719</v>
@@ -3474,7 +3474,7 @@
         <v>19.17696811183819</v>
       </c>
       <c r="AJ25" t="n">
-        <v>29.21760720254642</v>
+        <v>29.21760720254643</v>
       </c>
       <c r="AK25" t="n">
         <v>25.49681390627686</v>
@@ -3649,7 +3649,7 @@
         <v>31.90025442953841</v>
       </c>
       <c r="O27" t="n">
-        <v>38.51791725664944</v>
+        <v>38.51791725664945</v>
       </c>
       <c r="P27" t="n">
         <v>17.73088110118528</v>
@@ -3664,7 +3664,7 @@
         <v>5.506970866825895</v>
       </c>
       <c r="T27" t="n">
-        <v>4.68957988793665</v>
+        <v>4.689579887936648</v>
       </c>
       <c r="U27" t="n">
         <v>7.092677264544767</v>
@@ -3682,7 +3682,7 @@
         <v>10.11400200923579</v>
       </c>
       <c r="Z27" t="n">
-        <v>7.044527942215897</v>
+        <v>7.044527942215898</v>
       </c>
       <c r="AA27" t="n">
         <v>14.05900321477404</v>
@@ -3700,7 +3700,7 @@
         <v>7.766676696445527</v>
       </c>
       <c r="AF27" t="n">
-        <v>4.970593608363615</v>
+        <v>4.970593608363614</v>
       </c>
       <c r="AG27" t="n">
         <v>11.44211647530032</v>
@@ -3709,7 +3709,7 @@
         <v>10.85648070335067</v>
       </c>
       <c r="AI27" t="n">
-        <v>8.617359746490582</v>
+        <v>8.617359746490585</v>
       </c>
       <c r="AJ27" t="n">
         <v>13.83029559685719</v>
@@ -3774,7 +3774,7 @@
         <v>19.64484178246503</v>
       </c>
       <c r="Q28" t="n">
-        <v>15.82332304714556</v>
+        <v>15.82332304714555</v>
       </c>
       <c r="R28" t="n">
         <v>23.98702504776899</v>
@@ -3881,13 +3881,13 @@
         <v>41.85689380499201</v>
       </c>
       <c r="M29" t="n">
-        <v>44.60834129577307</v>
+        <v>44.60834129577308</v>
       </c>
       <c r="N29" t="n">
         <v>24.32939879899047</v>
       </c>
       <c r="O29" t="n">
-        <v>63.05779685396578</v>
+        <v>63.05779685396577</v>
       </c>
       <c r="P29" t="n">
         <v>32.83646188823646</v>
@@ -3902,10 +3902,10 @@
         <v>28.51135545367056</v>
       </c>
       <c r="T29" t="n">
-        <v>19.40419104551746</v>
+        <v>19.40419104551747</v>
       </c>
       <c r="U29" t="n">
-        <v>38.35158187633647</v>
+        <v>38.35158187633648</v>
       </c>
       <c r="V29" t="n">
         <v>37.52891926447766</v>
@@ -3950,7 +3950,7 @@
         <v>28.79174755513932</v>
       </c>
       <c r="AJ29" t="n">
-        <v>43.62830146045274</v>
+        <v>43.62830146045275</v>
       </c>
       <c r="AK29" t="n">
         <v>36.31556599526089</v>
@@ -3982,7 +3982,7 @@
         <v>28.84908555095868</v>
       </c>
       <c r="G30" t="n">
-        <v>23.09294339120933</v>
+        <v>23.09294339120934</v>
       </c>
       <c r="H30" t="n">
         <v>18.04205949789301</v>
@@ -4134,7 +4134,7 @@
         <v>12.01518871067546</v>
       </c>
       <c r="R31" t="n">
-        <v>18.837335992755</v>
+        <v>18.83733599275499</v>
       </c>
       <c r="S31" t="n">
         <v>5.578568530738647</v>
@@ -4143,7 +4143,7 @@
         <v>4.474176267708216</v>
       </c>
       <c r="U31" t="n">
-        <v>7.406586554867271</v>
+        <v>7.406586554867273</v>
       </c>
       <c r="V31" t="n">
         <v>10.40206996657588</v>
@@ -4158,7 +4158,7 @@
         <v>9.186696678773533</v>
       </c>
       <c r="Z31" t="n">
-        <v>6.810186296709741</v>
+        <v>6.810186296709743</v>
       </c>
       <c r="AA31" t="n">
         <v>12.05736610324871</v>
@@ -4173,7 +4173,7 @@
         <v>26.60176367879797</v>
       </c>
       <c r="AE31" t="n">
-        <v>7.857313360481835</v>
+        <v>7.857313360481836</v>
       </c>
       <c r="AF31" t="n">
         <v>5.486369318530889</v>
@@ -4185,7 +4185,7 @@
         <v>10.62903367950452</v>
       </c>
       <c r="AI31" t="n">
-        <v>8.313535625482707</v>
+        <v>8.313535625482706</v>
       </c>
       <c r="AJ31" t="n">
         <v>13.35771406232347</v>
@@ -4205,7 +4205,7 @@
         <v>11.40929705082258</v>
       </c>
       <c r="B32" t="n">
-        <v>6.938620153869749</v>
+        <v>6.93862015386975</v>
       </c>
       <c r="C32" t="n">
         <v>16.67294258161942</v>
@@ -4232,10 +4232,10 @@
         <v>11.218504029794</v>
       </c>
       <c r="K32" t="n">
-        <v>6.681534425832756</v>
+        <v>6.681534425832757</v>
       </c>
       <c r="L32" t="n">
-        <v>16.85852720954778</v>
+        <v>16.85852720954777</v>
       </c>
       <c r="M32" t="n">
         <v>23.10457698084892</v>
@@ -4244,7 +4244,7 @@
         <v>21.7673693352233</v>
       </c>
       <c r="O32" t="n">
-        <v>24.85518596368489</v>
+        <v>24.8551859636849</v>
       </c>
       <c r="P32" t="n">
         <v>11.96366098963803</v>
@@ -4256,19 +4256,19 @@
         <v>14.95808977631127</v>
       </c>
       <c r="S32" t="n">
-        <v>1.635156970244415</v>
+        <v>1.635156970244413</v>
       </c>
       <c r="T32" t="n">
-        <v>1.932377679709342</v>
+        <v>1.932377679709341</v>
       </c>
       <c r="U32" t="n">
-        <v>1.888405630187529</v>
+        <v>1.888405630187528</v>
       </c>
       <c r="V32" t="n">
-        <v>5.746071394016816</v>
+        <v>5.746071394016814</v>
       </c>
       <c r="W32" t="n">
-        <v>6.180718143672709</v>
+        <v>6.18071814367271</v>
       </c>
       <c r="X32" t="n">
         <v>6.093171032075809</v>
@@ -4277,7 +4277,7 @@
         <v>5.982184784889533</v>
       </c>
       <c r="Z32" t="n">
-        <v>3.980797082678774</v>
+        <v>3.980797082678775</v>
       </c>
       <c r="AA32" t="n">
         <v>8.749472597615306</v>
@@ -4295,25 +4295,25 @@
         <v>5.024341407244895</v>
       </c>
       <c r="AF32" t="n">
-        <v>3.025819069440152</v>
+        <v>3.025819069440151</v>
       </c>
       <c r="AG32" t="n">
         <v>7.55734301094601</v>
       </c>
       <c r="AH32" t="n">
-        <v>6.124752204402528</v>
+        <v>6.12475220440253</v>
       </c>
       <c r="AI32" t="n">
         <v>4.808642498855836</v>
       </c>
       <c r="AJ32" t="n">
-        <v>7.938039065371862</v>
+        <v>7.938039065371861</v>
       </c>
       <c r="AK32" t="n">
         <v>11.47480641454321</v>
       </c>
       <c r="AL32" t="n">
-        <v>8.868893894126614</v>
+        <v>8.868893894126613</v>
       </c>
       <c r="AM32" t="n">
         <v>14.75158966326722</v>
@@ -4324,7 +4324,7 @@
         <v>15.62875646210755</v>
       </c>
       <c r="B33" t="n">
-        <v>10.40833045563078</v>
+        <v>10.40833045563079</v>
       </c>
       <c r="C33" t="n">
         <v>21.84058242611806</v>
@@ -4348,7 +4348,7 @@
         <v>21.47472717206457</v>
       </c>
       <c r="J33" t="n">
-        <v>15.43468757075049</v>
+        <v>15.43468757075048</v>
       </c>
       <c r="K33" t="n">
         <v>9.867452179250048</v>
@@ -4375,7 +4375,7 @@
         <v>20.49515951941795</v>
       </c>
       <c r="S33" t="n">
-        <v>6.479669509570242</v>
+        <v>6.479669509570241</v>
       </c>
       <c r="T33" t="n">
         <v>5.146344192987632</v>
@@ -4399,7 +4399,7 @@
         <v>7.446122546832759</v>
       </c>
       <c r="AA33" t="n">
-        <v>13.42139574480634</v>
+        <v>13.42139574480635</v>
       </c>
       <c r="AB33" t="n">
         <v>25.70609223365908</v>
@@ -4417,7 +4417,7 @@
         <v>5.890353229602324</v>
       </c>
       <c r="AG33" t="n">
-        <v>11.54809234042963</v>
+        <v>11.54809234042962</v>
       </c>
       <c r="AH33" t="n">
         <v>11.63427102795936</v>
@@ -4482,7 +4482,7 @@
         <v>28.71877186749575</v>
       </c>
       <c r="O34" t="n">
-        <v>49.04689055102753</v>
+        <v>49.04689055102754</v>
       </c>
       <c r="P34" t="n">
         <v>24.22716661899705</v>
@@ -4494,7 +4494,7 @@
         <v>30.03440481382966</v>
       </c>
       <c r="S34" t="n">
-        <v>15.3778007394036</v>
+        <v>15.37780073940361</v>
       </c>
       <c r="T34" t="n">
         <v>11.00708971481606</v>
@@ -4738,7 +4738,7 @@
         <v>8.22364240145094</v>
       </c>
       <c r="U36" t="n">
-        <v>15.28665873941881</v>
+        <v>15.2866587394188</v>
       </c>
       <c r="V36" t="n">
         <v>16.89465262011986</v>
@@ -4806,7 +4806,7 @@
         <v>35.90136153913057</v>
       </c>
       <c r="D37" t="n">
-        <v>28.64535257242367</v>
+        <v>28.64535257242368</v>
       </c>
       <c r="E37" t="n">
         <v>23.52664824744391</v>
@@ -4848,7 +4848,7 @@
         <v>23.54725883726368</v>
       </c>
       <c r="R37" t="n">
-        <v>35.99355170168405</v>
+        <v>35.99355170168406</v>
       </c>
       <c r="S37" t="n">
         <v>24.45773676316302</v>
@@ -4905,13 +4905,13 @@
         <v>38.19393652672076</v>
       </c>
       <c r="AK37" t="n">
-        <v>32.47514649039465</v>
+        <v>32.47514649039466</v>
       </c>
       <c r="AL37" t="n">
         <v>28.55935097590144</v>
       </c>
       <c r="AM37" t="n">
-        <v>36.73470938927026</v>
+        <v>36.73470938927027</v>
       </c>
     </row>
     <row r="38">
@@ -4967,13 +4967,13 @@
         <v>14.81547381329635</v>
       </c>
       <c r="R38" t="n">
-        <v>23.44201856815998</v>
+        <v>23.44201856815997</v>
       </c>
       <c r="S38" t="n">
-        <v>7.951250077193521</v>
+        <v>7.951250077193522</v>
       </c>
       <c r="T38" t="n">
-        <v>6.175738781892671</v>
+        <v>6.175738781892669</v>
       </c>
       <c r="U38" t="n">
         <v>10.5241734673219</v>
@@ -5021,7 +5021,7 @@
         <v>10.657497924537</v>
       </c>
       <c r="AJ38" t="n">
-        <v>16.89967845276584</v>
+        <v>16.89967845276583</v>
       </c>
       <c r="AK38" t="n">
         <v>18.38678553267644</v>
@@ -5098,7 +5098,7 @@
         <v>24.95056428479425</v>
       </c>
       <c r="V39" t="n">
-        <v>26.42974423177139</v>
+        <v>26.4297442317714</v>
       </c>
       <c r="W39" t="n">
         <v>18.02719123475435</v>
@@ -5181,7 +5181,7 @@
         <v>29.85646947044543</v>
       </c>
       <c r="J40" t="n">
-        <v>25.60275476088778</v>
+        <v>25.60275476088777</v>
       </c>
       <c r="K40" t="n">
         <v>18.20334066907287</v>
@@ -5223,7 +5223,7 @@
         <v>18.13127353651652</v>
       </c>
       <c r="X40" t="n">
-        <v>40.22661788090541</v>
+        <v>40.2266178809054</v>
       </c>
       <c r="Y40" t="n">
         <v>21.43728922264295</v>
@@ -5282,7 +5282,7 @@
         <v>21.81921663465361</v>
       </c>
       <c r="D41" t="n">
-        <v>16.85406806739317</v>
+        <v>16.85406806739318</v>
       </c>
       <c r="E41" t="n">
         <v>12.98921050413355</v>
@@ -5547,13 +5547,13 @@
         <v>31.34547177512005</v>
       </c>
       <c r="M43" t="n">
-        <v>35.51809424984641</v>
+        <v>35.51809424984642</v>
       </c>
       <c r="N43" t="n">
         <v>23.13345542125397</v>
       </c>
       <c r="O43" t="n">
-        <v>47.00273657869025</v>
+        <v>47.00273657869024</v>
       </c>
       <c r="P43" t="n">
         <v>23.91796706588462</v>
@@ -5642,7 +5642,7 @@
         <v>14.72389007262843</v>
       </c>
       <c r="E44" t="n">
-        <v>10.74931026381105</v>
+        <v>10.74931026381106</v>
       </c>
       <c r="F44" t="n">
         <v>19.00318595228805</v>
@@ -5672,7 +5672,7 @@
         <v>17.38396983108109</v>
       </c>
       <c r="O44" t="n">
-        <v>29.09759562470529</v>
+        <v>29.0975956247053</v>
       </c>
       <c r="P44" t="n">
         <v>15.0572039719877</v>
@@ -5684,7 +5684,7 @@
         <v>18.38849063723166</v>
       </c>
       <c r="S44" t="n">
-        <v>7.397264587307937</v>
+        <v>7.397264587307936</v>
       </c>
       <c r="T44" t="n">
         <v>5.550618287762983</v>
@@ -5705,7 +5705,7 @@
         <v>10.02007332768848</v>
       </c>
       <c r="Z44" t="n">
-        <v>7.837634508747188</v>
+        <v>7.837634508747189</v>
       </c>
       <c r="AA44" t="n">
         <v>12.65243022347957</v>
@@ -5732,7 +5732,7 @@
         <v>12.38645628793101</v>
       </c>
       <c r="AI44" t="n">
-        <v>9.768126205422517</v>
+        <v>9.768126205422515</v>
       </c>
       <c r="AJ44" t="n">
         <v>15.26847702658855</v>
@@ -5741,7 +5741,7 @@
         <v>16.03432071152025</v>
       </c>
       <c r="AL44" t="n">
-        <v>13.41138283473658</v>
+        <v>13.41138283473659</v>
       </c>
       <c r="AM44" t="n">
         <v>18.98953291180111</v>
@@ -5758,7 +5758,7 @@
         <v>28.44317700575046</v>
       </c>
       <c r="D45" t="n">
-        <v>20.6209601915969</v>
+        <v>20.62096019159689</v>
       </c>
       <c r="E45" t="n">
         <v>14.81448955817917</v>
@@ -5806,7 +5806,7 @@
         <v>12.03242055020438</v>
       </c>
       <c r="T45" t="n">
-        <v>8.848762895580627</v>
+        <v>8.848762895580625</v>
       </c>
       <c r="U45" t="n">
         <v>16.02853198044689</v>
@@ -5922,16 +5922,16 @@
         <v>17.30244180095334</v>
       </c>
       <c r="S46" t="n">
-        <v>4.787674681920356</v>
+        <v>4.787674681920355</v>
       </c>
       <c r="T46" t="n">
-        <v>3.906988762980065</v>
+        <v>3.906988762980064</v>
       </c>
       <c r="U46" t="n">
-        <v>6.367390917382394</v>
+        <v>6.367390917382396</v>
       </c>
       <c r="V46" t="n">
-        <v>9.231702900199537</v>
+        <v>9.231702900199533</v>
       </c>
       <c r="W46" t="n">
         <v>7.397481420156234</v>
@@ -5943,7 +5943,7 @@
         <v>8.351336976434389</v>
       </c>
       <c r="Z46" t="n">
-        <v>6.194415331991587</v>
+        <v>6.194415331991588</v>
       </c>
       <c r="AA46" t="n">
         <v>10.95605256440924</v>
@@ -5958,7 +5958,7 @@
         <v>24.43262227156631</v>
       </c>
       <c r="AE46" t="n">
-        <v>7.307758946777444</v>
+        <v>7.307758946777445</v>
       </c>
       <c r="AF46" t="n">
         <v>5.095454105969665</v>
@@ -5970,7 +5970,7 @@
         <v>9.675006460323781</v>
       </c>
       <c r="AI46" t="n">
-        <v>7.532214859131274</v>
+        <v>7.532214859131273</v>
       </c>
       <c r="AJ46" t="n">
         <v>12.17705926550935</v>
@@ -6002,7 +6002,7 @@
         <v>5.73963348225055</v>
       </c>
       <c r="F47" t="n">
-        <v>17.20698977508387</v>
+        <v>17.20698977508388</v>
       </c>
       <c r="G47" t="n">
         <v>10.94199274545675</v>
@@ -6038,7 +6038,7 @@
         <v>9.59108320872161</v>
       </c>
       <c r="R47" t="n">
-        <v>15.40693513183461</v>
+        <v>15.4069351318346</v>
       </c>
       <c r="S47" t="n">
         <v>-0.1835390863248758</v>
@@ -6050,22 +6050,22 @@
         <v>-0.4873080412390181</v>
       </c>
       <c r="V47" t="n">
-        <v>4.156518280015781</v>
+        <v>4.15651828001578</v>
       </c>
       <c r="W47" t="n">
         <v>5.502890120308325</v>
       </c>
       <c r="X47" t="n">
-        <v>3.674936072242243</v>
+        <v>3.67493607224224</v>
       </c>
       <c r="Y47" t="n">
         <v>5.148808135974585</v>
       </c>
       <c r="Z47" t="n">
-        <v>2.953348870641326</v>
+        <v>2.953348870641328</v>
       </c>
       <c r="AA47" t="n">
-        <v>8.154408477384447</v>
+        <v>8.154408477384445</v>
       </c>
       <c r="AB47" t="n">
         <v>23.81925771802657</v>
@@ -6092,13 +6092,13 @@
         <v>3.354051918916024</v>
       </c>
       <c r="AJ47" t="n">
-        <v>6.027276101106789</v>
+        <v>6.027276101106786</v>
       </c>
       <c r="AK47" t="n">
         <v>10.68935815644784</v>
       </c>
       <c r="AL47" t="n">
-        <v>7.682384248451038</v>
+        <v>7.682384248451037</v>
       </c>
       <c r="AM47" t="n">
         <v>14.57589982423387</v>
@@ -6270,13 +6270,13 @@
         <v>45.91313255244108</v>
       </c>
       <c r="P49" t="n">
-        <v>24.95623202526158</v>
+        <v>24.95623202526157</v>
       </c>
       <c r="Q49" t="n">
         <v>20.03884560059047</v>
       </c>
       <c r="R49" t="n">
-        <v>29.94617193562339</v>
+        <v>29.9461719356234</v>
       </c>
       <c r="S49" t="n">
         <v>21.37681671539983</v>
@@ -6499,7 +6499,7 @@
         <v>32.68119737063132</v>
       </c>
       <c r="M51" t="n">
-        <v>30.20286593346277</v>
+        <v>30.20286593346278</v>
       </c>
       <c r="N51" t="n">
         <v>11.93410257522826</v>
@@ -6588,13 +6588,13 @@
         <v>8.265703124575925</v>
       </c>
       <c r="C52" t="n">
-        <v>17.40809726568366</v>
+        <v>17.40809726568367</v>
       </c>
       <c r="D52" t="n">
         <v>12.48424385800461</v>
       </c>
       <c r="E52" t="n">
-        <v>8.412640311155435</v>
+        <v>8.412640311155437</v>
       </c>
       <c r="F52" t="n">
         <v>16.96414057798504</v>
@@ -6639,16 +6639,16 @@
         <v>4.106987963115367</v>
       </c>
       <c r="T52" t="n">
-        <v>3.444781678803179</v>
+        <v>3.444781678803178</v>
       </c>
       <c r="U52" t="n">
-        <v>5.317137350653713</v>
+        <v>5.317137350653711</v>
       </c>
       <c r="V52" t="n">
-        <v>8.258960607410305</v>
+        <v>8.258960607410303</v>
       </c>
       <c r="W52" t="n">
-        <v>7.058481918876298</v>
+        <v>7.058481918876297</v>
       </c>
       <c r="X52" t="n">
         <v>10.13261164515821</v>
@@ -6657,7 +6657,7 @@
         <v>7.575952323894526</v>
       </c>
       <c r="Z52" t="n">
-        <v>5.598809652678296</v>
+        <v>5.598809652678297</v>
       </c>
       <c r="AA52" t="n">
         <v>10.11745512828793</v>
@@ -6672,7 +6672,7 @@
         <v>22.27345023353868</v>
       </c>
       <c r="AE52" t="n">
-        <v>6.765453572168152</v>
+        <v>6.765453572168153</v>
       </c>
       <c r="AF52" t="n">
         <v>4.717607591918651</v>
@@ -6684,7 +6684,7 @@
         <v>8.772189370417136</v>
       </c>
       <c r="AI52" t="n">
-        <v>6.881409538276392</v>
+        <v>6.881409538276391</v>
       </c>
       <c r="AJ52" t="n">
         <v>11.0110944054756</v>
@@ -6731,7 +6731,7 @@
         <v>25.0942438859155</v>
       </c>
       <c r="K53" t="n">
-        <v>17.28528909538827</v>
+        <v>17.28528909538826</v>
       </c>
       <c r="L53" t="n">
         <v>34.40811358044854</v>
@@ -6743,7 +6743,7 @@
         <v>27.36348504191808</v>
       </c>
       <c r="O53" t="n">
-        <v>52.50109880335513</v>
+        <v>52.50109880335512</v>
       </c>
       <c r="P53" t="n">
         <v>26.28775761591506</v>
@@ -6871,7 +6871,7 @@
         <v>24.40524752121445</v>
       </c>
       <c r="R54" t="n">
-        <v>36.98740353681641</v>
+        <v>36.98740353681642</v>
       </c>
       <c r="S54" t="n">
         <v>26.98467132104063</v>
@@ -6990,7 +6990,7 @@
         <v>22.68893054755271</v>
       </c>
       <c r="R55" t="n">
-        <v>34.48938984359772</v>
+        <v>34.48938984359773</v>
       </c>
       <c r="S55" t="n">
         <v>23.69439469684806</v>
@@ -7008,7 +7008,7 @@
         <v>20.06084628404299</v>
       </c>
       <c r="X55" t="n">
-        <v>43.04881864986431</v>
+        <v>43.0488186498643</v>
       </c>
       <c r="Y55" t="n">
         <v>23.12300238977106</v>
@@ -7044,13 +7044,13 @@
         <v>24.40764707803861</v>
       </c>
       <c r="AJ55" t="n">
-        <v>37.01695421410173</v>
+        <v>37.01695421410174</v>
       </c>
       <c r="AK55" t="n">
         <v>31.44576383047361</v>
       </c>
       <c r="AL55" t="n">
-        <v>27.74087114884618</v>
+        <v>27.74087114884619</v>
       </c>
       <c r="AM55" t="n">
         <v>35.42007947060871</v>
@@ -7100,7 +7100,7 @@
         <v>22.8218899582078</v>
       </c>
       <c r="O56" t="n">
-        <v>31.11402484081003</v>
+        <v>31.11402484081004</v>
       </c>
       <c r="P56" t="n">
         <v>15.31398477059051</v>
@@ -7112,16 +7112,16 @@
         <v>18.99099766133162</v>
       </c>
       <c r="S56" t="n">
-        <v>5.716327443255277</v>
+        <v>5.716327443255276</v>
       </c>
       <c r="T56" t="n">
         <v>4.605401793397298</v>
       </c>
       <c r="U56" t="n">
-        <v>7.392764143312514</v>
+        <v>7.392764143312512</v>
       </c>
       <c r="V56" t="n">
-        <v>10.64910093355977</v>
+        <v>10.64910093355976</v>
       </c>
       <c r="W56" t="n">
         <v>8.988054666402768</v>
@@ -7133,10 +7133,10 @@
         <v>9.261665491022633</v>
       </c>
       <c r="Z56" t="n">
-        <v>6.83539290346582</v>
+        <v>6.835392903465821</v>
       </c>
       <c r="AA56" t="n">
-        <v>12.38576123164641</v>
+        <v>12.38576123164642</v>
       </c>
       <c r="AB56" t="n">
         <v>23.73630293020975</v>
@@ -7154,13 +7154,13 @@
         <v>5.502705191668652</v>
       </c>
       <c r="AG56" t="n">
-        <v>10.77106230099928</v>
+        <v>10.77106230099927</v>
       </c>
       <c r="AH56" t="n">
         <v>10.69304634109714</v>
       </c>
       <c r="AI56" t="n">
-        <v>8.476679932353393</v>
+        <v>8.476679932353392</v>
       </c>
       <c r="AJ56" t="n">
         <v>13.37607648329893</v>
@@ -7180,7 +7180,7 @@
         <v>11.35594521816832</v>
       </c>
       <c r="B57" t="n">
-        <v>6.895293769151416</v>
+        <v>6.895293769151417</v>
       </c>
       <c r="C57" t="n">
         <v>16.65876247550463</v>
@@ -7201,13 +7201,13 @@
         <v>6.905959708782579</v>
       </c>
       <c r="I57" t="n">
-        <v>16.6445876290138</v>
+        <v>16.64458762901379</v>
       </c>
       <c r="J57" t="n">
         <v>11.21148473775332</v>
       </c>
       <c r="K57" t="n">
-        <v>6.643635478159792</v>
+        <v>6.643635478159793</v>
       </c>
       <c r="L57" t="n">
         <v>16.85241271873539</v>
@@ -7225,7 +7225,7 @@
         <v>11.91124223512841</v>
       </c>
       <c r="Q57" t="n">
-        <v>9.665843680790724</v>
+        <v>9.665843680790726</v>
       </c>
       <c r="R57" t="n">
         <v>14.92735744259595</v>
@@ -7234,13 +7234,13 @@
         <v>1.607605187741088</v>
       </c>
       <c r="T57" t="n">
-        <v>1.906132574571526</v>
+        <v>1.906132574571525</v>
       </c>
       <c r="U57" t="n">
-        <v>1.891170112498481</v>
+        <v>1.891170112498479</v>
       </c>
       <c r="V57" t="n">
-        <v>5.696665200620039</v>
+        <v>5.696665200620037</v>
       </c>
       <c r="W57" t="n">
         <v>6.041654394231976</v>
@@ -7252,10 +7252,10 @@
         <v>5.967191022439714</v>
       </c>
       <c r="Z57" t="n">
-        <v>3.975755761327559</v>
+        <v>3.97575576132756</v>
       </c>
       <c r="AA57" t="n">
-        <v>8.683793571935764</v>
+        <v>8.683793571935766</v>
       </c>
       <c r="AB57" t="n">
         <v>20.81744403828436</v>
@@ -7270,19 +7270,19 @@
         <v>5.02252914747112</v>
       </c>
       <c r="AF57" t="n">
-        <v>3.022551894812599</v>
+        <v>3.022551894812598</v>
       </c>
       <c r="AG57" t="n">
         <v>7.557531377344731</v>
       </c>
       <c r="AH57" t="n">
-        <v>6.111949672084004</v>
+        <v>6.111949672084005</v>
       </c>
       <c r="AI57" t="n">
-        <v>4.776013637481697</v>
+        <v>4.776013637481698</v>
       </c>
       <c r="AJ57" t="n">
-        <v>7.934366581176771</v>
+        <v>7.93436658117677</v>
       </c>
       <c r="AK57" t="n">
         <v>11.45821804804707</v>
@@ -7338,7 +7338,7 @@
         <v>23.27487817600597</v>
       </c>
       <c r="O58" t="n">
-        <v>56.79895797684064</v>
+        <v>56.79895797684063</v>
       </c>
       <c r="P58" t="n">
         <v>29.48613810728398</v>
@@ -7359,7 +7359,7 @@
         <v>32.84722336321149</v>
       </c>
       <c r="V58" t="n">
-        <v>32.62588972493471</v>
+        <v>32.62588972493472</v>
       </c>
       <c r="W58" t="n">
         <v>20.67797328420439</v>
@@ -7472,7 +7472,7 @@
         <v>8.896396937434542</v>
       </c>
       <c r="T59" t="n">
-        <v>6.606257981805838</v>
+        <v>6.606257981805837</v>
       </c>
       <c r="U59" t="n">
         <v>11.86898494819643</v>
@@ -7490,7 +7490,7 @@
         <v>11.64581144501731</v>
       </c>
       <c r="Z59" t="n">
-        <v>9.054052474129849</v>
+        <v>9.05405247412985</v>
       </c>
       <c r="AA59" t="n">
         <v>14.65802022411989</v>
@@ -7585,7 +7585,7 @@
         <v>25.41377596658407</v>
       </c>
       <c r="R60" t="n">
-        <v>38.55303006233339</v>
+        <v>38.5530300623334</v>
       </c>
       <c r="S60" t="n">
         <v>27.80311695236225</v>
@@ -7609,7 +7609,7 @@
         <v>26.41747685835398</v>
       </c>
       <c r="Z60" t="n">
-        <v>22.11061361268242</v>
+        <v>22.11061361268241</v>
       </c>
       <c r="AA60" t="n">
         <v>30.83387339363512</v>
@@ -7639,7 +7639,7 @@
         <v>28.10831337291031</v>
       </c>
       <c r="AJ60" t="n">
-        <v>42.45866411622389</v>
+        <v>42.4586641162239</v>
       </c>
       <c r="AK60" t="n">
         <v>35.31936006833212</v>
@@ -7728,7 +7728,7 @@
         <v>10.90239737080128</v>
       </c>
       <c r="Z61" t="n">
-        <v>8.056852190199695</v>
+        <v>8.056852190199697</v>
       </c>
       <c r="AA61" t="n">
         <v>14.45703025796627</v>
@@ -7743,7 +7743,7 @@
         <v>30.94752352016432</v>
       </c>
       <c r="AE61" t="n">
-        <v>8.961858967211942</v>
+        <v>8.961858967211944</v>
       </c>
       <c r="AF61" t="n">
         <v>6.278001267535995</v>
@@ -7859,7 +7859,7 @@
         <v>23.2286983234198</v>
       </c>
       <c r="AD62" t="n">
-        <v>30.14152988370681</v>
+        <v>30.14152988370682</v>
       </c>
       <c r="AE62" t="n">
         <v>10.70659565168275</v>
@@ -7871,7 +7871,7 @@
         <v>13.98496995745126</v>
       </c>
       <c r="AH62" t="n">
-        <v>15.24853794547323</v>
+        <v>15.24853794547324</v>
       </c>
       <c r="AI62" t="n">
         <v>12.11208850447681</v>
@@ -7918,22 +7918,22 @@
         <v>25.67892579179401</v>
       </c>
       <c r="J63" t="n">
-        <v>18.40964329437359</v>
+        <v>18.40964329437358</v>
       </c>
       <c r="K63" t="n">
         <v>11.93157062801777</v>
       </c>
       <c r="L63" t="n">
-        <v>26.98379131915458</v>
+        <v>26.98379131915459</v>
       </c>
       <c r="M63" t="n">
-        <v>36.46616857034545</v>
+        <v>36.46616857034544</v>
       </c>
       <c r="N63" t="n">
         <v>30.98715656130591</v>
       </c>
       <c r="O63" t="n">
-        <v>42.05529977767469</v>
+        <v>42.0552997776747</v>
       </c>
       <c r="P63" t="n">
         <v>19.94872836163216</v>
@@ -8052,7 +8052,7 @@
         <v>22.50917662688853</v>
       </c>
       <c r="O64" t="n">
-        <v>60.36406525409844</v>
+        <v>60.36406525409843</v>
       </c>
       <c r="P64" t="n">
         <v>31.75640412224048</v>
@@ -8106,7 +8106,7 @@
         <v>19.18474193810088</v>
       </c>
       <c r="AG64" t="n">
-        <v>27.7232297550214</v>
+        <v>27.72322975502141</v>
       </c>
       <c r="AH64" t="n">
         <v>35.21512443908556</v>
@@ -8129,10 +8129,10 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>10.27939780293498</v>
+        <v>10.27939780293497</v>
       </c>
       <c r="B65" t="n">
-        <v>6.137758274081464</v>
+        <v>6.137758274081465</v>
       </c>
       <c r="C65" t="n">
         <v>15.1670873159117</v>
@@ -8171,31 +8171,31 @@
         <v>19.35756188666114</v>
       </c>
       <c r="O65" t="n">
-        <v>22.05055533888734</v>
+        <v>22.05055533888735</v>
       </c>
       <c r="P65" t="n">
         <v>10.67392820560356</v>
       </c>
       <c r="Q65" t="n">
-        <v>8.657315235421104</v>
+        <v>8.657315235421105</v>
       </c>
       <c r="R65" t="n">
         <v>13.36173091707896</v>
       </c>
       <c r="S65" t="n">
-        <v>0.789159556419472</v>
+        <v>0.7891595564194702</v>
       </c>
       <c r="T65" t="n">
-        <v>1.312699964705558</v>
+        <v>1.312699964705557</v>
       </c>
       <c r="U65" t="n">
-        <v>0.8547389573245567</v>
+        <v>0.854738957324555</v>
       </c>
       <c r="V65" t="n">
-        <v>4.476891940846921</v>
+        <v>4.476891940846917</v>
       </c>
       <c r="W65" t="n">
-        <v>5.007336145748374</v>
+        <v>5.007336145748375</v>
       </c>
       <c r="X65" t="n">
         <v>4.739372084533461</v>
@@ -8204,7 +8204,7 @@
         <v>5.116837557650749</v>
       </c>
       <c r="Z65" t="n">
-        <v>3.354943475258189</v>
+        <v>3.354943475258191</v>
       </c>
       <c r="AA65" t="n">
         <v>7.516801007416754</v>
@@ -8240,7 +8240,7 @@
         <v>10.39565865513374</v>
       </c>
       <c r="AL65" t="n">
-        <v>7.90742915111788</v>
+        <v>7.907429151117878</v>
       </c>
       <c r="AM65" t="n">
         <v>13.4082966518469</v>
@@ -8522,7 +8522,7 @@
         <v>34.80650048233844</v>
       </c>
       <c r="M68" t="n">
-        <v>36.26591038948939</v>
+        <v>36.2659103894894</v>
       </c>
       <c r="N68" t="n">
         <v>19.63443383180209</v>
@@ -8605,10 +8605,10 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>11.17591630454544</v>
+        <v>11.17591630454545</v>
       </c>
       <c r="B69" t="n">
-        <v>6.239093524078527</v>
+        <v>6.239093524078528</v>
       </c>
       <c r="C69" t="n">
         <v>17.38692273880373</v>
@@ -8617,7 +8617,7 @@
         <v>11.0264653014806</v>
       </c>
       <c r="E69" t="n">
-        <v>5.836403194583674</v>
+        <v>5.836403194583673</v>
       </c>
       <c r="F69" t="n">
         <v>17.22665654245835</v>
@@ -8635,7 +8635,7 @@
         <v>10.96424859230786</v>
       </c>
       <c r="K69" t="n">
-        <v>6.222508638990455</v>
+        <v>6.222508638990456</v>
       </c>
       <c r="L69" t="n">
         <v>17.43416594615351</v>
@@ -8662,13 +8662,13 @@
         <v>-0.1008837388148986</v>
       </c>
       <c r="T69" t="n">
-        <v>0.9346709750680233</v>
+        <v>0.9346709750680224</v>
       </c>
       <c r="U69" t="n">
-        <v>-0.4956014881718716</v>
+        <v>-0.4956014881718751</v>
       </c>
       <c r="V69" t="n">
-        <v>4.304736860206114</v>
+        <v>4.304736860206113</v>
       </c>
       <c r="W69" t="n">
         <v>5.920081368630524</v>
@@ -8680,7 +8680,7 @@
         <v>5.193789423324045</v>
       </c>
       <c r="Z69" t="n">
-        <v>2.968472834694975</v>
+        <v>2.968472834694976</v>
       </c>
       <c r="AA69" t="n">
         <v>8.351445554423067</v>
@@ -8695,7 +8695,7 @@
         <v>26.05956359828738</v>
       </c>
       <c r="AE69" t="n">
-        <v>3.829159136478479</v>
+        <v>3.829159136478481</v>
       </c>
       <c r="AF69" t="n">
         <v>1.71841141026777</v>
@@ -8707,16 +8707,16 @@
         <v>4.405737192931616</v>
       </c>
       <c r="AI69" t="n">
-        <v>3.451938503038436</v>
+        <v>3.451938503038438</v>
       </c>
       <c r="AJ69" t="n">
-        <v>6.038293553692064</v>
+        <v>6.038293553692061</v>
       </c>
       <c r="AK69" t="n">
         <v>10.73912325593625</v>
       </c>
       <c r="AL69" t="n">
-        <v>7.825369164404517</v>
+        <v>7.825369164404515</v>
       </c>
       <c r="AM69" t="n">
         <v>14.60456291699262</v>
@@ -8733,7 +8733,7 @@
         <v>31.45469627258138</v>
       </c>
       <c r="D70" t="n">
-        <v>25.58734929308036</v>
+        <v>25.58734929308037</v>
       </c>
       <c r="E70" t="n">
         <v>21.39728888792672</v>
@@ -8793,7 +8793,7 @@
         <v>17.99220978707579</v>
       </c>
       <c r="X70" t="n">
-        <v>40.26481883886348</v>
+        <v>40.26481883886347</v>
       </c>
       <c r="Y70" t="n">
         <v>21.42229546019313</v>
@@ -8843,7 +8843,7 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>19.18507811805919</v>
+        <v>19.18507811805918</v>
       </c>
       <c r="B71" t="n">
         <v>14.47623213718598</v>
@@ -8855,7 +8855,7 @@
         <v>19.16669309525637</v>
       </c>
       <c r="E71" t="n">
-        <v>15.39039359834459</v>
+        <v>15.39039359834458</v>
       </c>
       <c r="F71" t="n">
         <v>23.07472111176924</v>
@@ -8900,7 +8900,7 @@
         <v>13.95026605318975</v>
       </c>
       <c r="T71" t="n">
-        <v>9.736046400544776</v>
+        <v>9.736046400544778</v>
       </c>
       <c r="U71" t="n">
         <v>18.71539045988499</v>
@@ -8912,7 +8912,7 @@
         <v>12.65566424049713</v>
       </c>
       <c r="X71" t="n">
-        <v>26.46513415886473</v>
+        <v>26.46513415886472</v>
       </c>
       <c r="Y71" t="n">
         <v>14.89332157282657</v>
@@ -8930,7 +8930,7 @@
         <v>18.77028286579731</v>
       </c>
       <c r="AD71" t="n">
-        <v>26.3529241766571</v>
+        <v>26.35292417665711</v>
       </c>
       <c r="AE71" t="n">
         <v>13.64107782759865</v>
@@ -8986,7 +8986,7 @@
         <v>16.74865543031678</v>
       </c>
       <c r="I72" t="n">
-        <v>26.00976529566846</v>
+        <v>26.00976529566847</v>
       </c>
       <c r="J72" t="n">
         <v>21.1463543665265</v>
@@ -9004,7 +9004,7 @@
         <v>19.49301107705008</v>
       </c>
       <c r="O72" t="n">
-        <v>41.61527337895557</v>
+        <v>41.61527337895558</v>
       </c>
       <c r="P72" t="n">
         <v>21.75785153389266</v>
